--- a/www/terminologies/ValueSet-jdv-complication-neuropsychiatrique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-complication-neuropsychiatrique-cisis.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103858</t>
+    <t>20250624152101</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:58+01:00</t>
+    <t>2025-06-24T15:21:01+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-complication-neuropsychiatrique-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-complication-neuropsychiatrique-cisis.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152101</t>
+    <t>20251216141840</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:01+01:00</t>
+    <t>2025-12-16T14:18:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,13 +106,19 @@
     <t>Épisode dépressif, sans précision</t>
   </si>
   <si>
+    <t>G47.9</t>
+  </si>
+  <si>
+    <t>Trouble du sommeil, sans précision</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>https://smt.esante.gouv.fr/terminologie-cim-10</t>
+    <t>http://hl7.org/fhir/sid/icd-10</t>
   </si>
   <si>
     <t>MED-523</t>
@@ -125,12 +131,6 @@
   </si>
   <si>
     <t>Troubles du comportement (agitation, hallucinations)</t>
-  </si>
-  <si>
-    <t>MED-525</t>
-  </si>
-  <si>
-    <t>Troubles du sommeil</t>
   </si>
   <si>
     <t>GEN-092.01.15</t>
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -437,15 +437,23 @@
         <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -455,7 +463,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -475,49 +483,41 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s" s="2">
         <v>41</v>
       </c>
     </row>
